--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_plv_by_advanced_fm_linear_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_plv_by_advanced_fm_linear_rcm.xlsx
@@ -49,6 +49,27 @@
     <sheet name="rational_quadratic_sr_0.25" sheetId="40" state="visible" r:id="rId40"/>
     <sheet name="generalized_gaussian_sr_0.25" sheetId="41" state="visible" r:id="rId41"/>
     <sheet name="sigmoid_sr_0.25" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="exponential_sr_0.2" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="gaussian_sr_0.2" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="inverse_sr_0.2" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="powerlaw_sr_0.2" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="rational_quadratic_sr_0.2" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="generalized_gaussian_sr_0.2" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="sigmoid_sr_0.2" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="exponential_sr_0.15" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="gaussian_sr_0.15" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="inverse_sr_0.15" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="powerlaw_sr_0.15" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="rational_quadratic_sr_0.15" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="generalized_gaussian_sr_0.15" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="sigmoid_sr_0.15" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="exponential_sr_0.1" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="gaussian_sr_0.1" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="inverse_sr_0.1" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="powerlaw_sr_0.1" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="rational_quadratic_sr_0.1" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="generalized_gaussian_sr_0.1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="sigmoid_sr_0.1" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13410,6 +13431,2456 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>81.32743362831857</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4570514348413174</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8132743362831858</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8091457623514582</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>76.54971063763529</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5375811621847485</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7654971063763527</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.750735598175992</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>81.12215503594322</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4581063184887171</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8112215503594321</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7991162947924186</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.1736866235867</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3317354436323512</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8817368662358671</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8791299734931559</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.71976401179941</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3997125108260661</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.847197640117994</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8465461661858736</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.08554572271387</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3033723134120616</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8908554572271387</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8882095510617691</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>75.95904808865129</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6501103790011257</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7595904808865128</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7512368145952291</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>81.29793510324484</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4634350257460028</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8129793510324484</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8140692943405586</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>80.56289414268289</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4901574068081875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8056289414268291</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8046270843907702</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82.83185840707964</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4757036708993837</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8283185840707965</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8290369735404466</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>79.81306066661476</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.674130545463413</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7981306066661477</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7907507447937097</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>76.34322096211905</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6438854926110557</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7634322096211905</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7540405821331653</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.87020648967552</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.142086696401384</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9587020648967552</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9586479887609775</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>90.3834808259587</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2804438561579445</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9038348082595871</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9040215567790124</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.98247389683301</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1713623056273112</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9398247389683302</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9389321079070448</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>83.86816494952379</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4319249708067379</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8386816494952378</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8345497662201055</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>75.18334933693198</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6353696830570698</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7518334933693198</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7457841889752659</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75.78586319950865</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5856389793256918</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7578586319950864</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7480840425729787</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>78.40950181229941</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5412939153592257</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7840950181229942</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.784245584633094</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.94690265486726</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2290527740760202</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9194690265486726</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9200291547453661</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.30140399138401</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.464406079700954</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8230140399138401</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8192257738114413</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.25663716814159</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.365438079246087</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8725663716814159</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8703388552523643</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>74.24778761061947</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6963179728947579</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7424778761061946</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7445768813138742</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.952802359882</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3947642488094668</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8395280235988201</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.839264011013355</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>80.94429882611442</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4360562932832788</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8094429882611441</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8045570531789441</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82.94985250737463</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4451357538501422</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8294985250737463</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8273862525643944</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>77.90595074351855</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6048711514643703</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7790595074351854</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7771704811090154</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.29793510324484</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.485750679144015</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8129793510324484</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8099863227207441</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.89970501474927</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.149601420625792</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9589970501474927</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9589798420889025</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.29793510324484</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2283644304843619</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9129793510324484</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9132966304626174</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.12389380530973</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2384365827786193</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9212389380530974</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9181094716970153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>83.43358794914606</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4333665362733235</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8343358794914605</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.832068969742625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>83.6283185840708</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4314478039110933</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.836283185840708</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8349908813570452</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>78.1742056592185</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5315324949411055</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.781742056592185</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7690442961579916</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>85.04424778761062</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.401931259505606</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8504424778761062</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8418163970070353</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.38052232285746</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3061148612216736</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8838052232285747</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8825380319438672</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.45132743362832</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4884525739781869</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8345132743362832</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8262997653415394</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.58112094395281</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3638667833448077</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8758112094395279</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8740320714642614</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>72.82952274673656</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6895014508316915</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7282952274673656</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7265622536172589</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>84.12979351032449</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4085554262506775</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8412979351032448</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8384663413719666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81.32319483732559</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4514993643000101</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8132319483732559</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8114171960668919</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.68731563421829</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4552998792341289</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8368731563421828</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8355257579640814</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>74.63741035822109</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7214202573212485</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7463741035822109</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7498194908567667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.21325443991729</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4677249076776206</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.822132544399173</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8192730861380879</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.51639720066783</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1547837838564495</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9551639720066782</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9550051221895834</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.98525073746313</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1475567808515431</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9498525073746313</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9498214985353112</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.56966755767783</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1838012694887463</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9356966755767783</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9350836087889272</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>84.61010331692604</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4135659264476393</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8461010331692603</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8433130532533745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.56028166333618</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5339204018314679</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.785602816633362</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7825986044476381</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>72.45477902057976</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6383516629536947</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7245477902057976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7166940304631635</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82.21325443991729</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4204574803356081</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.822132544399173</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8213678540264029</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>85.59061929601467</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3777678578587559</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8559061929601468</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8538786885151891</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>72.84301767316326</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8503478811471723</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7284301767316326</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.716391964970794</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.17020908485367</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3907268654943133</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8617020908485367</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.852829438571194</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>73.33592851149231</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7190826047832767</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7333592851149231</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7227300506631059</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>80.02984454882828</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5007414614781738</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8002984454882828</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7972797037801316</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81.00398792377096</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4598264766857028</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8100398792377096</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8086393847110737</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>74.56163115597886</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6332057919818908</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7456163115597886</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7449331081777882</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>78.76244604192078</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5933857905678451</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7876244604192078</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7806855990532392</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>72.14015692177267</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6309680957347155</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7214015692177268</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7184339187475695</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>92.92675542175971</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2286850817955762</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9292675542175971</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9286436900535456</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.45061808493153</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2193444862573718</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9145061808493153</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.915069722845482</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.39267640723536</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.173784160381183</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9339267640723536</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9338373088866442</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>81.02908041303702</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4913730732857833</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8102908041303702</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8062675378608641</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>81.15044247787611</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4555971320563306</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8115044247787611</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8106275636293147</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>71.11454251334354</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8318866504666707</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7111454251334355</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7008081298071829</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>83.86430678466077</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3964973548892886</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8386430678466077</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8389571940551533</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>87.25732921565066</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3402073383253689</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8725732921565065</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8709524152519943</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.83185840707964</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4617818512915012</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8283185840707965</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8220821816689154</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>79.27092794920371</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8335043984911559</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7927092794920372</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7831315470169757</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>76.43604183427192</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6117905603100856</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7643604183427193</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7623422505128519</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.952802359882</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3793023424300676</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8395280235988201</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8374001775824418</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.71976401179941</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3965858550664658</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.847197640117994</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8431304521511926</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.71976401179941</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4614009595592506</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.847197640117994</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8414378004024116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>81.97778527495913</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5359908018416415</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8197778527495914</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8150299610388544</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>72.17458628534848</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7482545257778839</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7217458628534849</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7103992436774788</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.84070796460176</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1371579408665033</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9584070796460177</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9583096614556081</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.57522123893806</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1357087467054953</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9557522123893806</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9559565114747969</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.68904575299095</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1828534622696073</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9368904575299094</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9350827955708138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>83.63834173882702</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4605679946898211</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8363834173882705</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8323765256863991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>77.23025285685863</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5681874778121709</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7723025285685863</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7666787103906794</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>66.12808069273956</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.902891774661839</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6612808069273955</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6440413675310909</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82.06524277891677</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.434270704491064</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8206524277891678</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8179495693455665</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>86.34789228280522</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3438494359143078</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8634789228280522</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8631344357138528</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>76.81519736329899</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.680010127928108</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7681519736329899</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7580111966130907</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>78.84601077863995</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5755284402364244</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7884601077863995</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7835199910467745</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>74.89883130476908</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6472727216780185</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7489883130476908</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7349446285389379</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>77.38778017110874</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5566098234150558</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7738778017110874</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7703352860789145</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>80.61946902654867</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4730118183884769</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8061946902654867</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8001986913272565</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>78.83165079282693</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5305232253856957</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7883165079282692</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7888838921720007</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>78.34842861962474</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6003978776435057</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7834842861962474</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7816871383622862</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>76.19693941989117</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6273519393677512</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7619693941989117</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.751804940455302</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>92.86135693215338</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1980500453258476</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9286135693215339</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9285209077111851</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>90.05986210953382</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2617698555657019</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9005986210953381</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8993632233464692</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>88.93467936573846</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3040830483815322</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8893467936573846</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8858412603207289</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>80.37144496636363</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5135872210796999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.803714449663636</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7983276825969425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>84.86725663716814</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3625529720603178</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8486725663716814</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.847376371965512</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>79.41072154603413</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4897070801807179</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7941072154603414</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7876578141526355</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>85.25073746312685</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3505959289691721</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8525073746312686</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8491749603890417</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.55457227138643</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3183288393967814</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8855457227138643</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8845733339903925</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.27745914757048</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4625306873155448</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8427745914757049</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8381059324957187</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.49504753501328</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3607255294181717</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8749504753501327</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.874448348274241</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>75.16224188790559</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.756270047929138</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.751622418879056</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7401152092447043</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.78466076696165</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3236117454866568</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8678466076696164</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8668876969138619</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.66076696165192</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.362055346063183</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8466076696165192</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8437935714917491</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86.19469026548673</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4234583201507728</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8619469026548673</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8613137666848537</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.65781710914455</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5368623761188549</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8365781710914455</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.837751176870545</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.74041297935104</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5081740912244034</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8174041297935103</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8127003887318726</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94.66820647237432</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1858562954973119</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9466820647237434</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9463545133933555</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.42772861356931</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1237485072342679</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9542772861356932</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9541770754985837</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.75012759625949</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1414320672479031</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9475012759625947</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9466242780358096</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.19349648353361</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3803939889528799</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8619349648353362</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8594036292088584</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -13753,6 +16224,3506 @@
       </c>
       <c r="E17" t="n">
         <v>0.9203189405136816</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>72.58609503542418</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6891258870561918</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7258609503542418</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7215071058940101</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>64.29597141843787</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8250761464238167</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6429597141843788</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.630895095849373</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>71.77821607453352</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6612383199234804</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7177821607453352</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7043725805841943</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>76.90576908104741</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5541705227146546</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7690576908104741</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7673613716035229</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>71.39906054550644</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7282360973457496</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7139906054550644</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7074227530574847</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>82.03782039637022</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4894425423194965</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8203782039637021</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8173789933688476</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>59.64160589624478</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9130870256572962</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5964160589624478</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5954779075795964</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>65.22980302597773</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.921687250584364</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6522980302597773</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6471817809557063</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>68.23424078062959</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8680021189153194</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6823424078062958</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6740159448063137</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>70.34628327234665</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8280252238114676</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7034628327234664</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6953994478984824</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>69.49774652029862</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7966182567179203</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6949774652029862</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6963732421470913</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.23301239630101</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7755285960932572</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6623301239630101</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6530665918306446</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>88.91962733241637</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2892380553608139</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8891962733241637</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8894050752791316</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>86.69651121549495</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3359149712758759</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8669651121549494</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8587951078266538</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>87.54150122405903</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3252366761832187</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8754150122405904</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8717055227088781</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>73.42288428100589</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6667085126921948</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7342288428100587</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.728690568092662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>75.98958468498863</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5954213374604781</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7598958468498862</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.76042649344008</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74.89865829289181</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5560341327451169</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7489865829289181</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7465688430250828</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.6992794055312</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5761788897837202</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.766992794055312</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7660575278529994</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>74.49199387537955</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6754069638748963</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7449199387537954</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.743368450165705</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>67.20551215840968</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.984324146512275</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6720551215840967</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6472082944756579</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>74.16482841547072</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7280579812203845</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7416482841547072</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7377876147888152</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>70.83530134343724</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7981200408190489</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7083530134343723</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6923830618815258</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>77.37878355349093</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5654961680062115</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7737878355349095</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7682643889171475</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>69.71115667090547</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8047919578850269</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6971115667090546</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6893971400576373</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>74.96042353307556</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.599882991425693</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7496042353307555</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7491503473684624</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>74.63230650784176</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7247370646956066</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7463230650784176</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7379336015697161</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.6408013910155</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9866251613323888</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6664080139101549</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6513005659708581</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>88.79229059074905</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3364749699889217</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8879229059074906</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8838723350585805</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>83.2745092950631</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3990130043278138</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.832745092950631</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8305557158197567</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>68.3308679140823</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.602591059139619</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.683308679140823</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6603251869569462</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>74.53375317548884</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7288770579478135</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7453375317548884</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7376399711565981</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>72.40374051678648</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.700089160244291</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7240374051678649</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7242267175185372</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>67.64297269007517</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7523252521951993</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6764297269007518</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6753617310038821</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>79.44091211861694</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5069216276829441</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7944091211861695</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7845035263099537</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>84.92625368731564</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4168908516934607</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8492625368731563</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8492509210352364</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>79.29463057638907</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6449471163602236</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7929463057638907</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7770965094054207</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>82.41905206792447</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5086134046238537</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8241905206792446</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8197574276730031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67.9696191143522</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7735400607188543</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.679696191143522</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6657896396893872</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75.10324483775811</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6280544882640242</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7510324483775811</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7495279715543119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>70.05839150857706</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7880250733035306</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7005839150857707</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6841103272235944</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>81.94707566674452</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4251515995245427</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8194707566674453</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8187327053747033</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>69.38139603283766</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8696957674343139</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6938139603283766</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6962649002511625</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>72.56299794980926</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7232156892617543</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7256299794980926</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7158150259334741</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>87.46312684365782</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3731645182551195</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8746312684365781</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8723738823954894</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.07096947205426</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.446863057743758</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8407096947205426</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8385661959085671</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>81.91264630316871</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6151734256185591</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8191264630316871</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8150314179064082</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>77.10646862573782</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6115114061949619</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7710646862573783</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7657605932788754</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>68.97481812126402</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7154268028835455</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6897481812126403</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6892809989311898</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>68.0678033547003</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6961084118733804</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6806780335470031</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6763918584534683</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>71.13443887922907</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6710799371202787</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7113443887922906</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7007137447423945</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>73.71084524952639</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6779198889310162</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7371084524952638</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7317492287143107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>70.39524563361275</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7995346655758719</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7039524563361275</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6870348675617998</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>66.51683838095485</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9625650947292647</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6651683838095485</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6607931205925084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>58.31469130355799</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.020349553227425</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5831469130355799</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5626334880034156</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>65.94217943061791</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9210198044776916</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6594217943061791</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6456522709603638</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>64.03342589468767</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8574209657808144</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6403342589468768</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6400532930578243</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>70.09109075338021</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7530532285571099</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7009109075338023</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6943396329670087</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>68.7088123599685</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.757586158066988</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6870881235996851</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6879155227056881</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.55559304146229</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8122515248755613</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.665555930414623</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6593592582487761</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>81.98055346499538</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4415376645202438</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8198055346499536</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.819141064580702</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>79.03225806451613</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.505139154009521</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7903225806451613</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.784746125741471</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>79.04973226411994</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5103735069860704</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7904973226411993</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7856646482174708</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>70.16722174643955</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.740091090774319</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7016722174643956</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6950312748985594</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>74.96699798441162</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6145056101183096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7496699798441163</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7494738359714994</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>72.68972914990614</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6509192048261563</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7268972914990613</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7224288218318927</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>79.20405885864065</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4630321951272586</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7920405885864065</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7899340848200299</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>83.83723042586874</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4197617271294196</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8383723042586875</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8378966774334989</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>77.71364804193807</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6126987500581891</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7771364804193808</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7702812005682873</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>83.42425107483629</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.470461912934358</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8342425107483628</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8277369463108784</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67.50058391508577</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8096435562552264</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6750058391508577</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6706562994015547</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>77.37843752973642</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6106006658325593</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7737843752973641</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7694707860125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>75.16258791166014</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5825045148531596</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7516258791166013</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7503532745103054</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>77.26001089974827</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5904448395284514</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7726001089974827</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7723090559532906</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>72.28488135710516</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8098137720177571</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7228488135710516</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7218925159724148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>76.69616519174041</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5894402667259178</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7669616519174041</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7610850753878651</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>85.16552911357364</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4216243268029454</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8516552911357366</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8457225536311187</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>85.51674322442236</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3780568942427635</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8551674322442235</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8542734242495467</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>87.45248661320599</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3345904902399828</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.87452486613206</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8708356465902997</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>78.41688941945864</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5572065817794969</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7841688941945865</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7809566799096654</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>71.48150070502341</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.702481971308589</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.714815007050234</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7057869580927092</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>68.09591778475593</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7043550560871761</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6809591778475592</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6754006416939335</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>73.7854998745664</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5932147514075041</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7378549987456638</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7330170710742402</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>75.07755257398421</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6170715364006658</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7507755257398421</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.747446909484054</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>69.06435176774886</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8153443311651548</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6906435176774885</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6798491514531249</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>78.76365712506164</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5294364954034487</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7876365712506164</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7753525754252379</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>58.9924653327451</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.97944043080012</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5899246533274509</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.580355187935974</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>66.88474813795968</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8022215515375137</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6688474813795967</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6622828357831343</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>68.50803207640203</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7230390643080076</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6850803207640205</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6719512525267359</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>74.90177250668259</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5786793216442068</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7490177250668258</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7495831100809022</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>67.349804064049</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8317441007743278</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.67349804064049</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6753546205828453</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>72.83445358523863</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6774540058026711</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7283445358523862</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7193502734207438</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>82.48445055753078</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.441354834412535</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8248445055753078</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8241337257172668</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>81.12284708345229</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4455444799115261</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8112284708345229</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8066399144142113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>78.95007742281507</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.601278619778653</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7895007742281508</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7826813451803943</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>72.55314203986769</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6695107033828066</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7255314203986771</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7192790381910339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>80.53114646320469</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5216336838901043</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8053114646320469</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7991581475185707</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>73.45323056427824</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6661000737609963</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7345323056427824</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7281053878433874</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>80.44299691173799</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4756574328057468</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.80442996911738</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7959929193323763</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>81.99058815387676</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4738668163617452</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8199058815387676</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.815819582703927</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>77.9373523992422</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.606571916420944</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7793735239924221</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7771719847166166</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>73.28411145425133</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9503817849482099</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7328411145425133</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7152909998969477</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67.92290590749056</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8743489526212216</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6792290590749055</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6691462806054005</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>77.62324933606692</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5543140212384363</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7762324933606692</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7752083615160835</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>79.41072154603413</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5366605590097606</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7941072154603412</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7866729556959642</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.09769115649789</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4448146962968167</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.830976911564979</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.828460544548912</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>76.1305893649599</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6702363586984574</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7613058936495991</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7651987415493809</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>72.21792576060346</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7292215657730898</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7221792576060346</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.704684212075036</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>92.36022802965424</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2416315707416894</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9236022802965425</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9230533868206287</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>90.41401742229604</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.245549234499534</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9041401742229604</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9034454612274802</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>91.95330409432607</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2121535770517463</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9195330409432607</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9175536873944387</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>79.91800390430136</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5468761496079</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7991800390430136</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7936641768963433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>55.22634278843243</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9607958475748699</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5522634278843243</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5493814089656738</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>55.44511630723449</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8942438890536627</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.554451163072345</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5408250996125827</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>53.79025770119118</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9523231585820516</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5379025770119119</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.528976268771374</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50.16453429527937</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.043613732854525</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5016453429527937</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4958025038446526</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61.12258756563638</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9234370355804762</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6112258756563638</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6008249563811516</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>52.69275685775828</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.037136901418368</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5269275685775828</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5181438480887601</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>47.21848804920457</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.117332007487615</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4721848804920458</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4670231311063258</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>46.15515705153159</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.127239710092545</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4615515705153159</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4533163726335848</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>51.48660455540274</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.060712065299352</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5148660455540273</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5096214279206459</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>57.06891928130866</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9796832005182902</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5706891928130866</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5618915106000084</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>53.79250685559564</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.030855465928713</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5379250685559563</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5269279467528072</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>55.73145096410868</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9479625324408213</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5573145096410869</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5492979925638134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>68.6391750793692</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.693100991845131</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.686391750793692</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6867058944058322</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>71.61489286239501</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6733745574951172</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.71614892862395</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7132087681092818</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>62.90512893710154</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8914656753341357</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6290512893710153</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6109589183306156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>56.20359461010332</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9555517847670451</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.562035946101033</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5541937365391406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>61.31990761165754</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8659404774506887</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6131990761165754</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6101213043355055</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>63.03376326784834</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7958989411592483</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6303376326784834</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6231625486817615</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>61.29611847853355</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8511984030405679</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6129611847853356</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6099570514776846</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>60.93781088071696</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9066842158635458</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6093781088071696</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5979863374524786</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63.32528828104049</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9063858407239118</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6332528828104049</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6201037663029102</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>56.57912265677038</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.04335931489865</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5657912265677039</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5595530093950868</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>51.43539303973218</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.145382746060689</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5143539303973218</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4999748719633519</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>55.95844254708086</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9917517870664596</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5595844254708086</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5538562456642609</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>55.6060173530913</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.055849996209145</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.556060173530913</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5486734262729837</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>64.26751096462772</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8244565725326538</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6426751096462773</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6408541713012742</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>61.08513049420843</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9050012464324633</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6108513049420843</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6071042484637974</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>57.55222796044949</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9951469664772352</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5755222796044949</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5635189793812823</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>74.32131765845726</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5857349783182144</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7432131765845725</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7430507080494279</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>69.96159136324709</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7210573563973109</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6996159136324709</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6965641090822743</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>65.56034221749323</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9162714208165804</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6556034221749323</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6366431065080663</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>61.48266565166365</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9006746842298244</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6148266565166366</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6074082589554765</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>63.05340011591797</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8630860403180123</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6305340011591796</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6235408546226496</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>61.50572236784055</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8674953972299893</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6150572236784055</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6086725208566469</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>65.50402685144336</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8029918144146601</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6550402685144335</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6497852052877803</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>64.47486569953028</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8442382971445719</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6447486569953027</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6404130265808305</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>64.74087146082579</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8637641678253809</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6474087146082579</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6328795538798329</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>59.75752385401258</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9827328612407049</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5975752385401257</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5930133407468259</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>48.54678673690949</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.136826654275259</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4854678673690949</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4696605170192765</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53.92477443576502</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.024514340857665</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5392477443576501</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5328435280830587</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>56.75784392598551</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.038084267576536</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5675784392598552</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5565858988061274</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>67.01018174897706</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7858012100060781</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6701018174897706</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6642702664628193</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60.93123642938087</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9182773920396963</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6093123642938088</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6022847526709136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>60.79031825534823</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9004126057028771</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6079031825534823</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.596291991323032</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>75.20125606622895</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5980447063843409</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7520125606622894</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7478248315764289</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>69.8446353342157</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6875699895123641</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.698446353342157</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6978222436835765</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>65.93482642583413</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8366554065297047</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6593482642583414</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6485043126902125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>62.53188464721437</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8766996767371893</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6253188464721438</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6176261896193341</v>
       </c>
     </row>
   </sheetData>
@@ -14110,6 +20081,1406 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>50.69446967534321</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.024256507555644</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5069446967534321</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4900134163116735</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>52.76386473931435</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9070480714241663</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5276386473931436</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5067434602856757</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>54.67694357217623</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9443878948688507</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5467694357217623</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.530378606537406</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>48.27956989247312</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.062422736485799</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4827956989247312</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4725266214496566</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>56.85516310694729</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9671536187330882</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5685516310694729</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5566918162217952</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>52.34309985380496</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.031186724702517</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5234309985380496</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5147417174908309</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>42.89812195607228</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.175692870219549</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4289812195607229</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4137521113530355</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>46.74633863614737</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.119608591000239</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4674633863614737</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4590284748007946</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>45.74667600930804</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.125118402640025</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4574667600930803</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4543509193811793</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>54.36111039022829</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9784482846657434</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5436111039022828</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5379518806641268</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>49.87162518706909</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.079713359475136</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4987162518706909</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.480876474384719</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>50.23391205806278</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9992224852244058</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5023391205806279</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4875199538869081</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>66.49616346162165</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7309958785772324</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6649616346162164</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6652084186294036</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>65.23066808536406</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.78460224767526</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6523066808536406</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6436244236910189</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>58.4902118530437</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.042746478319168</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5849021185304372</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5598893444670218</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>53.04586256513176</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9981736101044549</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5304586256513176</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5182198426370165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>62.3749340392218</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8463682015736896</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.623749340392218</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6230846246802904</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>63.6804816650663</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7736408948898316</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.636804816650663</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6334207149304164</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.004238790993</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.93493499259154</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.60004238790993</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5906762415267219</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>61.11289890050951</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9121360565225283</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6111289890050953</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6051915637707491</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>65.32478654659641</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.951458338399728</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6532478654659643</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6382758089461585</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>59.55155321412815</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9321793675422668</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5955155321412815</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5921262655789148</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>45.9747056635438</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.132304199536641</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.459747056635438</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4507286941296655</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>54.65981539632696</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.060119200746219</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5465981539632696</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.537705987542959</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>56.31692315677471</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.068762264152368</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5631692315677471</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5581049923739367</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>61.26627392970526</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9353381065030891</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6126627392970527</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6082669630184927</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60.93417763129439</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9467955787976583</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.609341776312944</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6034741809158494</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>60.49758215901522</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8954615086317063</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6049758215901522</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5948814810023877</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>75.38170745421674</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6093472987413406</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7538170745421673</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.751072990493012</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>70.40424225123056</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6929407030344009</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7040424225123054</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6964925396383895</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>68.11460306750058</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7597327783703804</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6811460306750059</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6760503076409774</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>61.70659492440823</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8967679660022259</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6170659492440823</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6106368904125947</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>54.48887966158877</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9877400641640028</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5448887966158876</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5331527466909451</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>54.82097595999966</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9008949071168899</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5482097595999965</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5430488771122635</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>54.73317243228747</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9243370026350022</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5473317243228748</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5348386897643136</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>52.69881227346258</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0104585369428</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5269881227346257</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5248949888945282</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>58.73978148599902</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9738405376672745</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5873978148599901</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5714700052456123</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>52.57718492374502</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.051558189590772</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5257718492374501</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5218185658517979</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>43.80790491267226</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.140782166520755</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4380790491267225</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4197603822205986</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>45.24208686926357</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.141655510663986</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4524208686926358</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4434396196530876</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>48.57732333324683</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.100168999036153</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4857732333324683</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4690284467887746</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>57.06511302000882</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9272018114725749</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5706511302000882</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.560269346526818</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>50.22906772549936</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.086844823757807</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5022906772549935</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4815995809796775</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>50.81540497755171</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.02566608885924</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.508154049775517</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4917130011688548</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>68.10975873493716</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7110849310954411</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6810975873493715</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6778126068935861</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>67.81996384051766</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7275067895650864</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6781996384051765</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6783688633339857</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>60.11141964895889</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9989224751790365</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.601114196489589</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5826322753870313</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>54.65578998664925</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9805775222844548</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5465578998664924</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.535589866434125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>67.06554554970198</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.80009421693782</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6706554554970199</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6674988523253513</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>65.91735222623034</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7869228444993496</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6591735222623033</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6584291710659305</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>66.56649278973001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7389912247657776</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6656649278973001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.662419408419834</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>67.12142838605871</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8305763194958369</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.671214283860587</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6688128240871235</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>70.63106082232545</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7510535354415576</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7063106082232545</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7007626317101313</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>63.37494268981565</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8944333538413047</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6337494268981565</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6307458254396394</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>56.10299397053608</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.004057316978773</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5610299397053607</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5623947040748887</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>63.8191506846945</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8348581140240035</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.638191506846945</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6335299838120689</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>62.88436751182969</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9672153621912003</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6288436751182969</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6140573233902402</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>70.62604347788475</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7255099430680275</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7062604347788476</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7059824577910709</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>65.39053105995727</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8471612937748432</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6539053105995727</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6539593080245919</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>63.20573707385012</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8495366410662731</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6320573707385012</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6134908763791325</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>80.09195581276654</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.505804493278265</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8009195581276656</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7990964294790711</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>76.11553733163781</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6150249103705089</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7611553733163781</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.756624091448475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>68.3673734201853</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.955928266547077</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.683673734201853</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6728010291856314</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>67.15203418714695</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8071445224187078</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6715203418714695</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6667069944422122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
